--- a/docs/Metrics for 2011 Plans.xlsx
+++ b/docs/Metrics for 2011 Plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/Professional/Projects/Redistricting/DRA2020/analytics/partisan/experimental/3 - Analysis of 2011 Plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/bias-irl/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D30FD-C3D0-6E44-8FE0-D73FB4B27539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB9E57-2165-FE46-9F45-37CFFA8BDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{F08C87BC-C96D-1A4F-8DA4-EEEA4D15A1AA}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{F08C87BC-C96D-1A4F-8DA4-EEEA4D15A1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3–2a" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t xml:space="preserve"> &lt;V&gt;</t>
   </si>
@@ -263,6 +263,30 @@
   </si>
   <si>
     <t>UR-2 -- [EG] | [gamma]</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>The unit of measure is a difference of seat shares.</t>
+  </si>
+  <si>
+    <t>Super-proportional outcomes can’t favor the minority party.</t>
+  </si>
+  <si>
+    <t>Sub-proportional outcomes favor the minority party.</t>
+  </si>
+  <si>
+    <t>Locality &lt;&lt;&lt; Proximate cause???</t>
   </si>
 </sst>
 </file>
@@ -273,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,8 +333,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +366,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,11 +479,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -692,6 +756,45 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2650,13 +2753,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3693,31 +3796,31 @@
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="94" t="str">
         <f>G1</f>
         <v xml:space="preserve"> Decl</v>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="95" t="str">
         <f>H1</f>
         <v xml:space="preserve"> LO</v>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="96" t="str">
         <f>I1</f>
         <v xml:space="preserve"> MM</v>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="98" t="str">
         <f>J1</f>
         <v xml:space="preserve"> BS_50</v>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="97" t="str">
         <f t="shared" ref="K14:M14" si="0">K1</f>
         <v xml:space="preserve"> BV_50</v>
       </c>
-      <c r="L14" s="25" t="str">
+      <c r="L14" s="99" t="str">
         <f>L1</f>
         <v>β</v>
       </c>
-      <c r="M14" s="24" t="str">
+      <c r="M14" s="97" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> GS</v>
       </c>
@@ -3742,7 +3845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="D15" s="34" t="s">
         <v>15</v>
@@ -3788,7 +3891,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="D16" s="34" t="s">
         <v>17</v>
@@ -3805,7 +3908,7 @@
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="100" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3813,7 +3916,7 @@
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L16" s="37" t="str">
+      <c r="L16" s="101" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3829,7 +3932,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="37" t="str">
+      <c r="P16" s="102" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3860,7 +3963,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L17" s="37" t="str">
+      <c r="L17" s="101" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3882,7 +3985,7 @@
       </c>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="D18" s="34" t="s">
         <v>16</v>
@@ -3899,7 +4002,7 @@
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J18" s="36" t="str">
+      <c r="J18" s="100" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3929,7 +4032,7 @@
       </c>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="D19" s="34" t="s">
         <v>19</v>
@@ -3946,7 +4049,7 @@
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="J19" s="36" t="str">
+      <c r="J19" s="100" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3954,7 +4057,7 @@
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L19" s="37" t="str">
+      <c r="L19" s="101" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -3966,11 +4069,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O19" s="37" t="str">
+      <c r="O19" s="102" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="P19" s="37" t="str">
+      <c r="P19" s="102" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -4139,7 +4242,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L23" s="37" t="str">
+      <c r="L23" s="101" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -4185,7 +4288,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L24" s="37" t="str">
+      <c r="L24" s="101" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
@@ -4260,6 +4363,45 @@
       <c r="T25" s="69"/>
       <c r="U25" s="69"/>
       <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K26" s="11"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D30" s="90"/>
+      <c r="E30" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D31" s="92"/>
+      <c r="E31" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="91"/>
+      <c r="E32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="93"/>
+      <c r="E33" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Metrics for 2011 Plans.xlsx
+++ b/docs/Metrics for 2011 Plans.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/bias-irl/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB9E57-2165-FE46-9F45-37CFFA8BDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C0797-3B3E-FA47-8546-573342FDE5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{F08C87BC-C96D-1A4F-8DA4-EEEA4D15A1AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3–2a" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 3–2b" sheetId="4" r:id="rId2"/>
+    <sheet name="Table 1a" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1b" sheetId="4" r:id="rId2"/>
     <sheet name="CSV" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Table 3–2b'!$A$1:$T$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Table 1b'!$A$1:$P$12</definedName>
     <definedName name="Table_2___2011_Plans" localSheetId="2">CSV!$A$1:$S$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -795,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,7 +2762,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="A1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2835,7 @@
       <c r="O1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="61" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="60" t="s">
@@ -2857,79 +2860,79 @@
         <v>15</v>
       </c>
       <c r="B2" s="10">
-        <f>'Table 3–2a'!B2</f>
+        <f>'Table 1a'!B2</f>
         <v>0.59209999999999996</v>
       </c>
       <c r="C2" s="10">
-        <f>'Table 3–2a'!C2</f>
+        <f>'Table 1a'!C2</f>
         <v>0.72929999999999995</v>
       </c>
       <c r="D2" s="88">
-        <f>'Table 3–2a'!D2</f>
+        <f>'Table 1a'!D2</f>
         <v>2.4899</v>
       </c>
       <c r="E2" s="11">
-        <f>'Table 3–2a'!E2</f>
+        <f>'Table 1a'!E2</f>
         <v>1.9390000000000001</v>
       </c>
       <c r="F2" s="11">
-        <f>'Table 3–2a'!F2</f>
+        <f>'Table 1a'!F2</f>
         <v>0.31569999999999998</v>
       </c>
       <c r="G2" s="49">
-        <f>'Table 3–2a'!G2</f>
+        <f>'Table 1a'!G2</f>
         <v>-3.0045000000000002</v>
       </c>
       <c r="H2" s="10">
-        <f>'Table 3–2a'!H2</f>
+        <f>'Table 1a'!H2</f>
         <v>9.2299999999999993E-2</v>
       </c>
       <c r="I2" s="10">
-        <f>'Table 3–2a'!I2</f>
+        <f>'Table 1a'!I2</f>
         <v>-9.7000000000000003E-3</v>
       </c>
       <c r="J2" s="13">
-        <f>'Table 3–2a'!J2</f>
+        <f>'Table 1a'!J2</f>
         <v>-1.7899999999999999E-2</v>
       </c>
       <c r="K2" s="10">
-        <f>'Table 3–2a'!K2</f>
+        <f>'Table 1a'!K2</f>
         <v>-6.1000000000000004E-3</v>
       </c>
       <c r="L2" s="10">
-        <f>'Table 3–2a'!L2</f>
+        <f>'Table 1a'!L2</f>
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="M2" s="10">
-        <f>'Table 3–2a'!M2</f>
+        <f>'Table 1a'!M2</f>
         <v>-1.7899999999999999E-2</v>
       </c>
       <c r="N2" s="13">
-        <f>'Table 3–2a'!N2</f>
+        <f>'Table 1a'!N2</f>
         <v>-0.13719999999999999</v>
       </c>
       <c r="O2" s="10">
-        <f>'Table 3–2a'!O2</f>
+        <f>'Table 1a'!O2</f>
         <v>-4.5100000000000001E-2</v>
       </c>
-      <c r="P2" s="10">
-        <f>'Table 3–2a'!P2</f>
+      <c r="P2" s="63">
+        <f>'Table 1a'!P2</f>
         <v>-5.0700000000000002E-2</v>
       </c>
       <c r="Q2" s="13">
-        <f>'Table 3–2a'!Q2</f>
+        <f>'Table 1a'!Q2</f>
         <v>-0.1444</v>
       </c>
       <c r="R2" s="10">
-        <f>'Table 3–2a'!R2</f>
+        <f>'Table 1a'!R2</f>
         <v>-0.14099999999999999</v>
       </c>
       <c r="S2" s="67">
-        <f>'Table 3–2a'!S2</f>
+        <f>'Table 1a'!S2</f>
         <v>-7.4730999999999996</v>
       </c>
       <c r="T2" s="73" t="str">
-        <f>'Table 3–2a'!T2</f>
+        <f>'Table 1a'!T2</f>
         <v>–</v>
       </c>
       <c r="U2" s="85"/>
@@ -2942,79 +2945,79 @@
         <v>17</v>
       </c>
       <c r="B3" s="10">
-        <f>'Table 3–2a'!B3</f>
+        <f>'Table 1a'!B3</f>
         <v>0.60009999999999997</v>
       </c>
       <c r="C3" s="10">
-        <f>'Table 3–2a'!C3</f>
+        <f>'Table 1a'!C3</f>
         <v>0.74650000000000005</v>
       </c>
       <c r="D3" s="88">
-        <f>'Table 3–2a'!D3</f>
+        <f>'Table 1a'!D3</f>
         <v>2.4630000000000001</v>
       </c>
       <c r="E3" s="11">
-        <f>'Table 3–2a'!E3</f>
+        <f>'Table 1a'!E3</f>
         <v>3.1497000000000002</v>
       </c>
       <c r="F3" s="11">
-        <f>'Table 3–2a'!F3</f>
+        <f>'Table 1a'!F3</f>
         <v>0.11749999999999999</v>
       </c>
       <c r="G3" s="49">
-        <f>'Table 3–2a'!G3</f>
+        <f>'Table 1a'!G3</f>
         <v>5.6847000000000003</v>
       </c>
       <c r="H3" s="10">
-        <f>'Table 3–2a'!H3</f>
+        <f>'Table 1a'!H3</f>
         <v>0.1166</v>
       </c>
       <c r="I3" s="10">
-        <f>'Table 3–2a'!I3</f>
+        <f>'Table 1a'!I3</f>
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="J3" s="13">
-        <f>'Table 3–2a'!J3</f>
+        <f>'Table 1a'!J3</f>
         <v>6.5299999999999997E-2</v>
       </c>
       <c r="K3" s="10">
-        <f>'Table 3–2a'!K3</f>
+        <f>'Table 1a'!K3</f>
         <v>1.77E-2</v>
       </c>
       <c r="L3" s="10">
-        <f>'Table 3–2a'!L3</f>
+        <f>'Table 1a'!L3</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="M3" s="10">
-        <f>'Table 3–2a'!M3</f>
+        <f>'Table 1a'!M3</f>
         <v>2.12E-2</v>
       </c>
       <c r="N3" s="13">
-        <f>'Table 3–2a'!N3</f>
+        <f>'Table 1a'!N3</f>
         <v>-0.1464</v>
       </c>
       <c r="O3" s="10">
-        <f>'Table 3–2a'!O3</f>
+        <f>'Table 1a'!O3</f>
         <v>-4.6300000000000001E-2</v>
       </c>
-      <c r="P3" s="87">
-        <f>'Table 3–2a'!P3</f>
+      <c r="P3" s="103">
+        <f>'Table 1a'!P3</f>
         <v>6.8699999999999997E-2</v>
       </c>
       <c r="Q3" s="13">
-        <f>'Table 3–2a'!Q3</f>
+        <f>'Table 1a'!Q3</f>
         <v>-0.13539999999999999</v>
       </c>
       <c r="R3" s="10">
-        <f>'Table 3–2a'!R3</f>
+        <f>'Table 1a'!R3</f>
         <v>-0.15989999999999999</v>
       </c>
       <c r="S3" s="67">
-        <f>'Table 3–2a'!S3</f>
+        <f>'Table 1a'!S3</f>
         <v>-2.8780999999999999</v>
       </c>
       <c r="T3" s="73" t="str">
-        <f>'Table 3–2a'!T3</f>
+        <f>'Table 1a'!T3</f>
         <v>–</v>
       </c>
       <c r="U3" s="85"/>
@@ -3027,79 +3030,79 @@
         <v>18</v>
       </c>
       <c r="B4" s="10">
-        <f>'Table 3–2a'!B4</f>
+        <f>'Table 1a'!B4</f>
         <v>0.59340000000000004</v>
       </c>
       <c r="C4" s="10">
-        <f>'Table 3–2a'!C4</f>
+        <f>'Table 1a'!C4</f>
         <v>0.84960000000000002</v>
       </c>
       <c r="D4" s="88">
-        <f>'Table 3–2a'!D4</f>
+        <f>'Table 1a'!D4</f>
         <v>3.7441</v>
       </c>
       <c r="E4" s="11">
-        <f>'Table 3–2a'!E4</f>
+        <f>'Table 1a'!E4</f>
         <v>1.0767</v>
       </c>
       <c r="F4" s="11">
-        <f>'Table 3–2a'!F4</f>
+        <f>'Table 1a'!F4</f>
         <v>0.72870000000000001</v>
       </c>
       <c r="G4" s="49">
-        <f>'Table 3–2a'!G4</f>
+        <f>'Table 1a'!G4</f>
         <v>-33.044199999999996</v>
       </c>
       <c r="H4" s="10">
-        <f>'Table 3–2a'!H4</f>
+        <f>'Table 1a'!H4</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="I4" s="10">
-        <f>'Table 3–2a'!I4</f>
+        <f>'Table 1a'!I4</f>
         <v>-1.09E-2</v>
       </c>
       <c r="J4" s="13">
-        <f>'Table 3–2a'!J4</f>
+        <f>'Table 1a'!J4</f>
         <v>-5.45E-2</v>
       </c>
       <c r="K4" s="10">
-        <f>'Table 3–2a'!K4</f>
+        <f>'Table 1a'!K4</f>
         <v>-1.01E-2</v>
       </c>
       <c r="L4" s="10">
-        <f>'Table 3–2a'!L4</f>
+        <f>'Table 1a'!L4</f>
         <v>1.37E-2</v>
       </c>
       <c r="M4" s="10">
-        <f>'Table 3–2a'!M4</f>
+        <f>'Table 1a'!M4</f>
         <v>-2.6700000000000002E-2</v>
       </c>
       <c r="N4" s="13">
-        <f>'Table 3–2a'!N4</f>
+        <f>'Table 1a'!N4</f>
         <v>-0.25619999999999998</v>
       </c>
       <c r="O4" s="10">
-        <f>'Table 3–2a'!O4</f>
+        <f>'Table 1a'!O4</f>
         <v>-0.1628</v>
       </c>
-      <c r="P4" s="10">
-        <f>'Table 3–2a'!P4</f>
+      <c r="P4" s="63">
+        <f>'Table 1a'!P4</f>
         <v>-0.249</v>
       </c>
       <c r="Q4" s="13">
-        <f>'Table 3–2a'!Q4</f>
+        <f>'Table 1a'!Q4</f>
         <v>-0.22459999999999999</v>
       </c>
       <c r="R4" s="10">
-        <f>'Table 3–2a'!R4</f>
+        <f>'Table 1a'!R4</f>
         <v>-0.2205</v>
       </c>
       <c r="S4" s="67">
-        <f>'Table 3–2a'!S4</f>
+        <f>'Table 1a'!S4</f>
         <v>-1.7637</v>
       </c>
       <c r="T4" s="73" t="str">
-        <f>'Table 3–2a'!T4</f>
+        <f>'Table 1a'!T4</f>
         <v>–</v>
       </c>
       <c r="U4" s="85"/>
@@ -3112,79 +3115,79 @@
         <v>16</v>
       </c>
       <c r="B5" s="10">
-        <f>'Table 3–2a'!B5</f>
+        <f>'Table 1a'!B5</f>
         <v>0.60029999999999994</v>
       </c>
       <c r="C5" s="10">
-        <f>'Table 3–2a'!C5</f>
+        <f>'Table 1a'!C5</f>
         <v>0.95799999999999996</v>
       </c>
       <c r="D5" s="88">
-        <f>'Table 3–2a'!D5</f>
+        <f>'Table 1a'!D5</f>
         <v>4.5678000000000001</v>
       </c>
       <c r="E5" s="11">
-        <f>'Table 3–2a'!E5</f>
+        <f>'Table 1a'!E5</f>
         <v>1.9723999999999999</v>
       </c>
       <c r="F5" s="11">
-        <f>'Table 3–2a'!F5</f>
+        <f>'Table 1a'!F5</f>
         <v>0.307</v>
       </c>
       <c r="G5" s="52" t="str">
-        <f>'Table 3–2a'!G5</f>
+        <f>'Table 1a'!G5</f>
         <v>N/A</v>
       </c>
       <c r="H5" s="53" t="str">
-        <f>'Table 3–2a'!H5</f>
+        <f>'Table 1a'!H5</f>
         <v>N/A</v>
       </c>
       <c r="I5" s="10">
-        <f>'Table 3–2a'!I5</f>
+        <f>'Table 1a'!I5</f>
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="J5" s="13">
-        <f>'Table 3–2a'!J5</f>
+        <f>'Table 1a'!J5</f>
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="K5" s="10">
-        <f>'Table 3–2a'!K5</f>
+        <f>'Table 1a'!K5</f>
         <v>0.01</v>
       </c>
       <c r="L5" s="10">
-        <f>'Table 3–2a'!L5</f>
+        <f>'Table 1a'!L5</f>
         <v>-3.04E-2</v>
       </c>
       <c r="M5" s="10">
-        <f>'Table 3–2a'!M5</f>
+        <f>'Table 1a'!M5</f>
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="N5" s="13">
-        <f>'Table 3–2a'!N5</f>
+        <f>'Table 1a'!N5</f>
         <v>-0.35770000000000002</v>
       </c>
       <c r="O5" s="10">
-        <f>'Table 3–2a'!O5</f>
+        <f>'Table 1a'!O5</f>
         <v>-0.25750000000000001</v>
       </c>
-      <c r="P5" s="10">
-        <f>'Table 3–2a'!P5</f>
+      <c r="P5" s="63">
+        <f>'Table 1a'!P5</f>
         <v>-0.26019999999999999</v>
       </c>
       <c r="Q5" s="13">
-        <f>'Table 3–2a'!Q5</f>
+        <f>'Table 1a'!Q5</f>
         <v>-0.40239999999999998</v>
       </c>
       <c r="R5" s="10">
-        <f>'Table 3–2a'!R5</f>
+        <f>'Table 1a'!R5</f>
         <v>-0.36170000000000002</v>
       </c>
       <c r="S5" s="67">
-        <f>'Table 3–2a'!S5</f>
+        <f>'Table 1a'!S5</f>
         <v>-3.2551999999999999</v>
       </c>
       <c r="T5" s="73" t="str">
-        <f>'Table 3–2a'!T5</f>
+        <f>'Table 1a'!T5</f>
         <v>–</v>
       </c>
       <c r="U5" s="85"/>
@@ -3197,79 +3200,79 @@
         <v>19</v>
       </c>
       <c r="B6" s="10">
-        <f>'Table 3–2a'!B6</f>
+        <f>'Table 1a'!B6</f>
         <v>0.50560000000000005</v>
       </c>
       <c r="C6" s="10">
-        <f>'Table 3–2a'!C6</f>
+        <f>'Table 1a'!C6</f>
         <v>0.50770000000000004</v>
       </c>
       <c r="D6" s="88">
-        <f>'Table 3–2a'!D6</f>
+        <f>'Table 1a'!D6</f>
         <v>1.3792</v>
       </c>
       <c r="E6" s="11">
-        <f>'Table 3–2a'!E6</f>
+        <f>'Table 1a'!E6</f>
         <v>3.8016000000000001</v>
       </c>
       <c r="F6" s="11">
-        <f>'Table 3–2a'!F6</f>
+        <f>'Table 1a'!F6</f>
         <v>0.16300000000000001</v>
       </c>
       <c r="G6" s="49">
-        <f>'Table 3–2a'!G6</f>
+        <f>'Table 1a'!G6</f>
         <v>0.16270000000000001</v>
       </c>
       <c r="H6" s="10">
-        <f>'Table 3–2a'!H6</f>
+        <f>'Table 1a'!H6</f>
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="I6" s="10">
-        <f>'Table 3–2a'!I6</f>
+        <f>'Table 1a'!I6</f>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="J6" s="13">
-        <f>'Table 3–2a'!J6</f>
+        <f>'Table 1a'!J6</f>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="K6" s="10">
-        <f>'Table 3–2a'!K6</f>
+        <f>'Table 1a'!K6</f>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L6" s="10">
-        <f>'Table 3–2a'!L6</f>
+        <f>'Table 1a'!L6</f>
         <v>1.38E-2</v>
       </c>
       <c r="M6" s="10">
-        <f>'Table 3–2a'!M6</f>
+        <f>'Table 1a'!M6</f>
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="N6" s="13">
-        <f>'Table 3–2a'!N6</f>
+        <f>'Table 1a'!N6</f>
         <v>-2.0999999999999999E-3</v>
       </c>
       <c r="O6" s="87">
-        <f>'Table 3–2a'!O6</f>
+        <f>'Table 1a'!O6</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P6" s="87">
-        <f>'Table 3–2a'!P6</f>
+      <c r="P6" s="103">
+        <f>'Table 1a'!P6</f>
         <v>1.35E-2</v>
       </c>
       <c r="Q6" s="13">
-        <f>'Table 3–2a'!Q6</f>
+        <f>'Table 1a'!Q6</f>
         <v>6.3799999999999996E-2</v>
       </c>
       <c r="R6" s="10">
-        <f>'Table 3–2a'!R6</f>
+        <f>'Table 1a'!R6</f>
         <v>-2E-3</v>
       </c>
       <c r="S6" s="67">
-        <f>'Table 3–2a'!S6</f>
+        <f>'Table 1a'!S6</f>
         <v>-1.38E-2</v>
       </c>
       <c r="T6" s="73" t="str">
-        <f>'Table 3–2a'!T6</f>
+        <f>'Table 1a'!T6</f>
         <v>+</v>
       </c>
       <c r="U6" s="85"/>
@@ -3282,79 +3285,79 @@
         <v>21</v>
       </c>
       <c r="B7" s="10">
-        <f>'Table 3–2a'!B7</f>
+        <f>'Table 1a'!B7</f>
         <v>0.51500000000000001</v>
       </c>
       <c r="C7" s="10">
-        <f>'Table 3–2a'!C7</f>
+        <f>'Table 1a'!C7</f>
         <v>0.32250000000000001</v>
       </c>
       <c r="D7" s="88">
-        <f>'Table 3–2a'!D7</f>
+        <f>'Table 1a'!D7</f>
         <v>-11.805300000000001</v>
       </c>
       <c r="E7" s="11">
-        <f>'Table 3–2a'!E7</f>
+        <f>'Table 1a'!E7</f>
         <v>4.3503999999999996</v>
       </c>
       <c r="F7" s="11">
-        <f>'Table 3–2a'!F7</f>
+        <f>'Table 1a'!F7</f>
         <v>0.12989999999999999</v>
       </c>
       <c r="G7" s="49">
-        <f>'Table 3–2a'!G7</f>
+        <f>'Table 1a'!G7</f>
         <v>36.517400000000002</v>
       </c>
       <c r="H7" s="10">
-        <f>'Table 3–2a'!H7</f>
+        <f>'Table 1a'!H7</f>
         <v>0.1106</v>
       </c>
       <c r="I7" s="10">
-        <f>'Table 3–2a'!I7</f>
+        <f>'Table 1a'!I7</f>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="J7" s="13">
-        <f>'Table 3–2a'!J7</f>
+        <f>'Table 1a'!J7</f>
         <v>0.2172</v>
       </c>
       <c r="K7" s="10">
-        <f>'Table 3–2a'!K7</f>
+        <f>'Table 1a'!K7</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="L7" s="10">
-        <f>'Table 3–2a'!L7</f>
+        <f>'Table 1a'!L7</f>
         <v>0.20979999999999999</v>
       </c>
       <c r="M7" s="10">
-        <f>'Table 3–2a'!M7</f>
+        <f>'Table 1a'!M7</f>
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>'Table 3–2a'!N7</f>
+        <f>'Table 1a'!N7</f>
         <v>0.1925</v>
       </c>
       <c r="O7" s="10">
-        <f>'Table 3–2a'!O7</f>
+        <f>'Table 1a'!O7</f>
         <v>0.20760000000000001</v>
       </c>
-      <c r="P7" s="10">
-        <f>'Table 3–2a'!P7</f>
+      <c r="P7" s="63">
+        <f>'Table 1a'!P7</f>
         <v>0.2429</v>
       </c>
       <c r="Q7" s="13">
-        <f>'Table 3–2a'!Q7</f>
+        <f>'Table 1a'!Q7</f>
         <v>0.216</v>
       </c>
       <c r="R7" s="10">
-        <f>'Table 3–2a'!R7</f>
+        <f>'Table 1a'!R7</f>
         <v>0.1653</v>
       </c>
       <c r="S7" s="67">
-        <f>'Table 3–2a'!S7</f>
+        <f>'Table 1a'!S7</f>
         <v>2.1486999999999998</v>
       </c>
       <c r="T7" s="73" t="str">
-        <f>'Table 3–2a'!T7</f>
+        <f>'Table 1a'!T7</f>
         <v>+</v>
       </c>
       <c r="U7" s="85"/>
@@ -3367,79 +3370,79 @@
         <v>22</v>
       </c>
       <c r="B8" s="10">
-        <f>'Table 3–2a'!B8</f>
+        <f>'Table 1a'!B8</f>
         <v>0.5131</v>
       </c>
       <c r="C8" s="10">
-        <f>'Table 3–2a'!C8</f>
+        <f>'Table 1a'!C8</f>
         <v>0.38979999999999998</v>
       </c>
       <c r="D8" s="88">
-        <f>'Table 3–2a'!D8</f>
+        <f>'Table 1a'!D8</f>
         <v>-8.4352999999999998</v>
       </c>
       <c r="E8" s="11">
-        <f>'Table 3–2a'!E8</f>
+        <f>'Table 1a'!E8</f>
         <v>4.0765000000000002</v>
       </c>
       <c r="F8" s="11">
-        <f>'Table 3–2a'!F8</f>
+        <f>'Table 1a'!F8</f>
         <v>0.14530000000000001</v>
       </c>
       <c r="G8" s="49">
-        <f>'Table 3–2a'!G8</f>
+        <f>'Table 1a'!G8</f>
         <v>22.170300000000001</v>
       </c>
       <c r="H8" s="10">
-        <f>'Table 3–2a'!H8</f>
+        <f>'Table 1a'!H8</f>
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="I8" s="10">
-        <f>'Table 3–2a'!I8</f>
+        <f>'Table 1a'!I8</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="J8" s="13">
-        <f>'Table 3–2a'!J8</f>
+        <f>'Table 1a'!J8</f>
         <v>0.155</v>
       </c>
       <c r="K8" s="10">
-        <f>'Table 3–2a'!K8</f>
+        <f>'Table 1a'!K8</f>
         <v>3.3300000000000003E-2</v>
       </c>
       <c r="L8" s="10">
-        <f>'Table 3–2a'!L8</f>
+        <f>'Table 1a'!L8</f>
         <v>0.14910000000000001</v>
       </c>
       <c r="M8" s="10">
-        <f>'Table 3–2a'!M8</f>
+        <f>'Table 1a'!M8</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>'Table 3–2a'!N8</f>
+        <f>'Table 1a'!N8</f>
         <v>0.1232</v>
       </c>
       <c r="O8" s="10">
-        <f>'Table 3–2a'!O8</f>
+        <f>'Table 1a'!O8</f>
         <v>0.1363</v>
       </c>
-      <c r="P8" s="10">
-        <f>'Table 3–2a'!P8</f>
+      <c r="P8" s="63">
+        <f>'Table 1a'!P8</f>
         <v>0.16339999999999999</v>
       </c>
       <c r="Q8" s="13">
-        <f>'Table 3–2a'!Q8</f>
+        <f>'Table 1a'!Q8</f>
         <v>0.11020000000000001</v>
       </c>
       <c r="R8" s="10">
-        <f>'Table 3–2a'!R8</f>
+        <f>'Table 1a'!R8</f>
         <v>0.1067</v>
       </c>
       <c r="S8" s="67">
-        <f>'Table 3–2a'!S8</f>
+        <f>'Table 1a'!S8</f>
         <v>1.7071000000000001</v>
       </c>
       <c r="T8" s="73" t="str">
-        <f>'Table 3–2a'!T8</f>
+        <f>'Table 1a'!T8</f>
         <v>+</v>
       </c>
       <c r="U8" s="85"/>
@@ -3452,79 +3455,79 @@
         <v>20</v>
       </c>
       <c r="B9" s="10">
-        <f>'Table 3–2a'!B9</f>
+        <f>'Table 1a'!B9</f>
         <v>0.52939999999999998</v>
       </c>
       <c r="C9" s="10">
-        <f>'Table 3–2a'!C9</f>
+        <f>'Table 1a'!C9</f>
         <v>0.41670000000000001</v>
       </c>
       <c r="D9" s="88">
-        <f>'Table 3–2a'!D9</f>
+        <f>'Table 1a'!D9</f>
         <v>-2.8304999999999998</v>
       </c>
       <c r="E9" s="11">
-        <f>'Table 3–2a'!E9</f>
+        <f>'Table 1a'!E9</f>
         <v>3.4077000000000002</v>
       </c>
       <c r="F9" s="11">
-        <f>'Table 3–2a'!F9</f>
+        <f>'Table 1a'!F9</f>
         <v>0.19350000000000001</v>
       </c>
       <c r="G9" s="49">
-        <f>'Table 3–2a'!G9</f>
+        <f>'Table 1a'!G9</f>
         <v>23.663499999999999</v>
       </c>
       <c r="H9" s="10">
-        <f>'Table 3–2a'!H9</f>
+        <f>'Table 1a'!H9</f>
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="I9" s="10">
-        <f>'Table 3–2a'!I9</f>
+        <f>'Table 1a'!I9</f>
         <v>5.74E-2</v>
       </c>
       <c r="J9" s="13">
-        <f>'Table 3–2a'!J9</f>
+        <f>'Table 1a'!J9</f>
         <v>0.16919999999999999</v>
       </c>
       <c r="K9" s="10">
-        <f>'Table 3–2a'!K9</f>
+        <f>'Table 1a'!K9</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="L9" s="10">
-        <f>'Table 3–2a'!L9</f>
+        <f>'Table 1a'!L9</f>
         <v>0.15540000000000001</v>
       </c>
       <c r="M9" s="10">
-        <f>'Table 3–2a'!M9</f>
+        <f>'Table 1a'!M9</f>
         <v>5.74E-2</v>
       </c>
       <c r="N9" s="13">
-        <f>'Table 3–2a'!N9</f>
+        <f>'Table 1a'!N9</f>
         <v>0.11269999999999999</v>
       </c>
       <c r="O9" s="10">
-        <f>'Table 3–2a'!O9</f>
+        <f>'Table 1a'!O9</f>
         <v>0.1421</v>
       </c>
-      <c r="P9" s="10">
-        <f>'Table 3–2a'!P9</f>
+      <c r="P9" s="63">
+        <f>'Table 1a'!P9</f>
         <v>0.1835</v>
       </c>
       <c r="Q9" s="13">
-        <f>'Table 3–2a'!Q9</f>
+        <f>'Table 1a'!Q9</f>
         <v>0.13880000000000001</v>
       </c>
       <c r="R9" s="10">
-        <f>'Table 3–2a'!R9</f>
+        <f>'Table 1a'!R9</f>
         <v>0.10589999999999999</v>
       </c>
       <c r="S9" s="67">
-        <f>'Table 3–2a'!S9</f>
+        <f>'Table 1a'!S9</f>
         <v>1.9068000000000001</v>
       </c>
       <c r="T9" s="73" t="str">
-        <f>'Table 3–2a'!T9</f>
+        <f>'Table 1a'!T9</f>
         <v>+</v>
       </c>
       <c r="U9" s="85"/>
@@ -3537,79 +3540,79 @@
         <v>24</v>
       </c>
       <c r="B10" s="10">
-        <f>'Table 3–2a'!B10</f>
+        <f>'Table 1a'!B10</f>
         <v>0.41589999999999999</v>
       </c>
       <c r="C10" s="10">
-        <f>'Table 3–2a'!C10</f>
+        <f>'Table 1a'!C10</f>
         <v>0.2107</v>
       </c>
       <c r="D10" s="88">
-        <f>'Table 3–2a'!D10</f>
+        <f>'Table 1a'!D10</f>
         <v>3.4416000000000002</v>
       </c>
       <c r="E10" s="11">
-        <f>'Table 3–2a'!E10</f>
+        <f>'Table 1a'!E10</f>
         <v>0.47299999999999998</v>
       </c>
       <c r="F10" s="11">
-        <f>'Table 3–2a'!F10</f>
+        <f>'Table 1a'!F10</f>
         <v>1.9142999999999999</v>
       </c>
       <c r="G10" s="49">
-        <f>'Table 3–2a'!G10</f>
+        <f>'Table 1a'!G10</f>
         <v>34.854599999999998</v>
       </c>
       <c r="H10" s="10">
-        <f>'Table 3–2a'!H10</f>
+        <f>'Table 1a'!H10</f>
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="I10" s="10">
-        <f>'Table 3–2a'!I10</f>
+        <f>'Table 1a'!I10</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="J10" s="13">
-        <f>'Table 3–2a'!J10</f>
+        <f>'Table 1a'!J10</f>
         <v>0.1835</v>
       </c>
       <c r="K10" s="10">
-        <f>'Table 3–2a'!K10</f>
+        <f>'Table 1a'!K10</f>
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="L10" s="10">
-        <f>'Table 3–2a'!L10</f>
+        <f>'Table 1a'!L10</f>
         <v>-3.1899999999999998E-2</v>
       </c>
       <c r="M10" s="10">
-        <f>'Table 3–2a'!M10</f>
+        <f>'Table 1a'!M10</f>
         <v>6.4600000000000005E-2</v>
       </c>
       <c r="N10" s="13">
-        <f>'Table 3–2a'!N10</f>
+        <f>'Table 1a'!N10</f>
         <v>0.20530000000000001</v>
       </c>
       <c r="O10" s="10">
-        <f>'Table 3–2a'!O10</f>
+        <f>'Table 1a'!O10</f>
         <v>0.1212</v>
       </c>
-      <c r="P10" s="10">
-        <f>'Table 3–2a'!P10</f>
+      <c r="P10" s="63">
+        <f>'Table 1a'!P10</f>
         <v>0.24959999999999999</v>
       </c>
       <c r="Q10" s="13">
-        <f>'Table 3–2a'!Q10</f>
+        <f>'Table 1a'!Q10</f>
         <v>0.23380000000000001</v>
       </c>
       <c r="R10" s="10">
-        <f>'Table 3–2a'!R10</f>
+        <f>'Table 1a'!R10</f>
         <v>0.2369</v>
       </c>
       <c r="S10" s="67">
-        <f>'Table 3–2a'!S10</f>
+        <f>'Table 1a'!S10</f>
         <v>2.1324000000000001</v>
       </c>
       <c r="T10" s="73" t="str">
-        <f>'Table 3–2a'!T10</f>
+        <f>'Table 1a'!T10</f>
         <v>+</v>
       </c>
       <c r="U10" s="85"/>
@@ -3622,79 +3625,79 @@
         <v>25</v>
       </c>
       <c r="B11" s="10">
-        <f>'Table 3–2a'!B11</f>
+        <f>'Table 1a'!B11</f>
         <v>0.40429999999999999</v>
       </c>
       <c r="C11" s="10">
-        <f>'Table 3–2a'!C11</f>
+        <f>'Table 1a'!C11</f>
         <v>0.28939999999999999</v>
       </c>
       <c r="D11" s="88">
-        <f>'Table 3–2a'!D11</f>
+        <f>'Table 1a'!D11</f>
         <v>2.2014999999999998</v>
       </c>
       <c r="E11" s="11">
-        <f>'Table 3–2a'!E11</f>
+        <f>'Table 1a'!E11</f>
         <v>1.17</v>
       </c>
       <c r="F11" s="11">
-        <f>'Table 3–2a'!F11</f>
+        <f>'Table 1a'!F11</f>
         <v>0.65469999999999995</v>
       </c>
       <c r="G11" s="49">
-        <f>'Table 3–2a'!G11</f>
+        <f>'Table 1a'!G11</f>
         <v>17.246200000000002</v>
       </c>
       <c r="H11" s="10">
-        <f>'Table 3–2a'!H11</f>
+        <f>'Table 1a'!H11</f>
         <v>-2.9600000000000001E-2</v>
       </c>
       <c r="I11" s="10">
-        <f>'Table 3–2a'!I11</f>
+        <f>'Table 1a'!I11</f>
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="J11" s="13">
-        <f>'Table 3–2a'!J11</f>
+        <f>'Table 1a'!J11</f>
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="K11" s="10">
-        <f>'Table 3–2a'!K11</f>
+        <f>'Table 1a'!K11</f>
         <v>1.35E-2</v>
       </c>
       <c r="L11" s="10">
-        <f>'Table 3–2a'!L11</f>
+        <f>'Table 1a'!L11</f>
         <v>-8.3299999999999999E-2</v>
       </c>
       <c r="M11" s="10">
-        <f>'Table 3–2a'!M11</f>
+        <f>'Table 1a'!M11</f>
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>'Table 3–2a'!N11</f>
+        <f>'Table 1a'!N11</f>
         <v>0.115</v>
       </c>
       <c r="O11" s="10">
-        <f>'Table 3–2a'!O11</f>
+        <f>'Table 1a'!O11</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="P11" s="10">
-        <f>'Table 3–2a'!P11</f>
+      <c r="P11" s="63">
+        <f>'Table 1a'!P11</f>
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="Q11" s="13">
-        <f>'Table 3–2a'!Q11</f>
+        <f>'Table 1a'!Q11</f>
         <v>0.1273</v>
       </c>
       <c r="R11" s="10">
-        <f>'Table 3–2a'!R11</f>
+        <f>'Table 1a'!R11</f>
         <v>0.11840000000000001</v>
       </c>
       <c r="S11" s="67">
-        <f>'Table 3–2a'!S11</f>
+        <f>'Table 1a'!S11</f>
         <v>4.2638999999999996</v>
       </c>
       <c r="T11" s="73" t="str">
-        <f>'Table 3–2a'!T11</f>
+        <f>'Table 1a'!T11</f>
         <v>+</v>
       </c>
       <c r="U11" s="85"/>
@@ -3707,79 +3710,79 @@
         <v>23</v>
       </c>
       <c r="B12" s="15">
-        <f>'Table 3–2a'!B12</f>
+        <f>'Table 1a'!B12</f>
         <v>0.43</v>
       </c>
       <c r="C12" s="15">
-        <f>'Table 3–2a'!C12</f>
+        <f>'Table 1a'!C12</f>
         <v>0.1583</v>
       </c>
       <c r="D12" s="89">
-        <f>'Table 3–2a'!D12</f>
+        <f>'Table 1a'!D12</f>
         <v>4.883</v>
       </c>
       <c r="E12" s="16">
-        <f>'Table 3–2a'!E12</f>
+        <f>'Table 1a'!E12</f>
         <v>0.86960000000000004</v>
       </c>
       <c r="F12" s="16">
-        <f>'Table 3–2a'!F12</f>
+        <f>'Table 1a'!F12</f>
         <v>0.94989999999999997</v>
       </c>
       <c r="G12" s="50">
-        <f>'Table 3–2a'!G12</f>
+        <f>'Table 1a'!G12</f>
         <v>47.914400000000001</v>
       </c>
       <c r="H12" s="15">
-        <f>'Table 3–2a'!H12</f>
+        <f>'Table 1a'!H12</f>
         <v>4.24E-2</v>
       </c>
       <c r="I12" s="15">
-        <f>'Table 3–2a'!I12</f>
+        <f>'Table 1a'!I12</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="J12" s="18">
-        <f>'Table 3–2a'!J12</f>
+        <f>'Table 1a'!J12</f>
         <v>0.1502</v>
       </c>
       <c r="K12" s="15">
-        <f>'Table 3–2a'!K12</f>
+        <f>'Table 1a'!K12</f>
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="L12" s="15">
-        <f>'Table 3–2a'!L12</f>
+        <f>'Table 1a'!L12</f>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M12" s="15">
-        <f>'Table 3–2a'!M12</f>
+        <f>'Table 1a'!M12</f>
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="N12" s="18">
-        <f>'Table 3–2a'!N12</f>
+        <f>'Table 1a'!N12</f>
         <v>0.2717</v>
       </c>
       <c r="O12" s="15">
-        <f>'Table 3–2a'!O12</f>
+        <f>'Table 1a'!O12</f>
         <v>0.20169999999999999</v>
       </c>
-      <c r="P12" s="15">
-        <f>'Table 3–2a'!P12</f>
+      <c r="P12" s="65">
+        <f>'Table 1a'!P12</f>
         <v>0.28079999999999999</v>
       </c>
       <c r="Q12" s="18">
-        <f>'Table 3–2a'!Q12</f>
+        <f>'Table 1a'!Q12</f>
         <v>0.2702</v>
       </c>
       <c r="R12" s="15">
-        <f>'Table 3–2a'!R12</f>
+        <f>'Table 1a'!R12</f>
         <v>0.26300000000000001</v>
       </c>
       <c r="S12" s="68">
-        <f>'Table 3–2a'!S12</f>
+        <f>'Table 1a'!S12</f>
         <v>1.8407</v>
       </c>
       <c r="T12" s="75" t="str">
-        <f>'Table 3–2a'!T12</f>
+        <f>'Table 1a'!T12</f>
         <v>+</v>
       </c>
       <c r="U12" s="86"/>
@@ -4405,7 +4408,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="97" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
